--- a/proj02/uml.xlsx
+++ b/proj02/uml.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,18 +21,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Order List</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Client</t>
-  </si>
-  <si>
-    <t>OJBuildList</t>
-  </si>
-  <si>
-    <t>BTBuildList</t>
   </si>
   <si>
     <t>Barista</t>
@@ -43,18 +34,92 @@
   <si>
     <t>NewbieBarista</t>
   </si>
+  <si>
+    <t>deliverDrinks</t>
+  </si>
+  <si>
+    <t>AbstractOrderList</t>
+  </si>
+  <si>
+    <t>size : Integer                                OjVector : vector&lt;Orangejuice*&gt;</t>
+  </si>
+  <si>
+    <t>BubbleTeaList</t>
+  </si>
+  <si>
+    <t>OrangeJuiceOrderList</t>
+  </si>
+  <si>
+    <t>size : Integer                                BtVector : vector&lt;Orangejuice*&gt;</t>
+  </si>
+  <si>
+    <t>getDrink(int) : OrangeJuice *  getSize() : integer</t>
+  </si>
+  <si>
+    <t>getDrink(int) : BubbleTea *  getSize() : integer*</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">outputOrder 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t>deliverDrinks</t>
+    </r>
+  </si>
+  <si>
+    <t>getDrink()                    getSize()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="2">
@@ -65,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,17 +153,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -106,6 +233,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -808,8 +938,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
@@ -824,8 +954,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3276600" y="1346200"/>
-          <a:ext cx="0" cy="876300"/>
+          <a:off x="3263900" y="1676400"/>
+          <a:ext cx="0" cy="889000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -851,15 +981,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -868,8 +998,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3111500" y="1079500"/>
-          <a:ext cx="330200" cy="228600"/>
+          <a:off x="3378200" y="1308100"/>
+          <a:ext cx="520700" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -905,14 +1035,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -921,8 +1051,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10210800" y="2171700"/>
-          <a:ext cx="0" cy="774700"/>
+          <a:off x="8991600" y="2587626"/>
+          <a:ext cx="0" cy="784224"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -948,14 +1078,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -965,8 +1095,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9969500" y="1866900"/>
-          <a:ext cx="444500" cy="266700"/>
+          <a:off x="8769350" y="2587625"/>
+          <a:ext cx="444500" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="triangle">
           <a:avLst/>
@@ -1290,18 +1420,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:P23"/>
+  <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" customWidth="1"/>
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="8.5" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" hidden="1" customWidth="1"/>
@@ -1309,46 +1441,512 @@
     <col min="14" max="14" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:16" ht="15" thickBot="1"/>
-    <row r="6" spans="4:16" ht="14.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="D6" s="1" t="s">
+    <row r="2" spans="2:16">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="2:16" ht="15" thickBot="1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="2:16" ht="16" thickTop="1" thickBot="1">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="2:16" ht="16" thickTop="1" thickBot="1">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="2:16" ht="28" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
+    </row>
+    <row r="7" spans="2:16" ht="68.25" hidden="1" customHeight="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" ht="14.25" customHeight="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16" ht="59.25" hidden="1" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" ht="16" thickTop="1" thickBot="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="4:16" ht="68.25" hidden="1" customHeight="1"/>
-    <row r="8" spans="4:16" ht="15" thickTop="1"/>
-    <row r="9" spans="4:16" ht="14.25" customHeight="1"/>
-    <row r="10" spans="4:16" ht="59.25" hidden="1" customHeight="1"/>
-    <row r="11" spans="4:16" ht="15" thickBot="1"/>
-    <row r="12" spans="4:16" ht="16" thickTop="1" thickBot="1">
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" ht="34.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickTop="1">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="2:16" ht="15" thickBot="1">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="2:16" ht="16" thickTop="1" thickBot="1">
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" ht="26" thickTop="1" thickBot="1">
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="2:16" ht="26" thickTop="1" thickBot="1">
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="2:16" ht="15" thickBot="1">
+      <c r="B21" s="10"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="2:16" ht="16" thickTop="1" thickBot="1">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="2:16" ht="16" thickTop="1" thickBot="1">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="2:16" ht="16" thickTop="1" thickBot="1">
+      <c r="B24" s="2"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="4:16" ht="15" thickTop="1"/>
-    <row r="17" spans="2:14" ht="15" thickBot="1"/>
-    <row r="18" spans="2:14" ht="16" thickTop="1" thickBot="1">
-      <c r="B18" s="1" t="s">
-        <v>2</v>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="15" thickTop="1"/>
-    <row r="21" spans="2:14" ht="15" thickBot="1"/>
-    <row r="22" spans="2:14" ht="16" thickTop="1" thickBot="1">
-      <c r="I22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="15" thickTop="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="2:16" ht="15" thickTop="1">
+      <c r="B25" s="2"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="2:16">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>

--- a/proj02/uml.xlsx
+++ b/proj02/uml.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15100"/>
+    <workbookView xWindow="1220" yWindow="100" windowWidth="25600" windowHeight="15100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/proj02/uml.xlsx
+++ b/proj02/uml.xlsx
@@ -4,13 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="100" windowWidth="25600" windowHeight="15100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$32</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -35,9 +38,6 @@
     <t>NewbieBarista</t>
   </si>
   <si>
-    <t>deliverDrinks</t>
-  </si>
-  <si>
     <t>AbstractOrderList</t>
   </si>
   <si>
@@ -59,8 +59,14 @@
     <t>getDrink(int) : BubbleTea *  getSize() : integer*</t>
   </si>
   <si>
+    <t>getDrink()                    getSize()</t>
+  </si>
+  <si>
+    <t>deliverDrinks()</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">outputOrder 
+      <t xml:space="preserve">outputOrder() : string
 </t>
     </r>
     <r>
@@ -70,18 +76,15 @@
         <color theme="1"/>
         <rFont val="Times"/>
       </rPr>
-      <t>deliverDrinks</t>
+      <t>deliverDrinks()</t>
     </r>
-  </si>
-  <si>
-    <t>getDrink()                    getSize()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +123,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1423,7 +1432,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1479,7 +1488,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1515,7 +1524,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1665,7 +1674,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1725,13 +1734,13 @@
     </row>
     <row r="18" spans="2:16" ht="16" thickTop="1" thickBot="1">
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1746,13 +1755,13 @@
     </row>
     <row r="19" spans="2:16" ht="26" thickTop="1" thickBot="1">
       <c r="B19" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1767,13 +1776,13 @@
     </row>
     <row r="20" spans="2:16" ht="26" thickTop="1" thickBot="1">
       <c r="B20" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1850,14 +1859,14 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -1948,6 +1957,7 @@
       <c r="P29" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <drawing r:id="rId1"/>
